--- a/src/component/siswa/template.xlsx
+++ b/src/component/siswa/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\guru-sade\src\component\siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FD8BB-0E4C-444D-BA18-71731DE46DF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8E46BA-9727-4AF8-B828-C7FA2B054395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="12105" xr2:uid="{2B938AAD-34B0-4100-8A43-27CC4478F2B0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>NILAI</t>
-  </si>
-  <si>
-    <t>TERBILANG</t>
   </si>
   <si>
     <t>ID SISWA</t>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDFEF33-0309-4F09-A91C-00F94B30E456}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,33 +514,29 @@
     <col min="5" max="5" width="9.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +572,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -596,7 +589,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -613,7 +606,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -630,7 +623,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -647,7 +640,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -664,7 +657,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -681,7 +674,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -698,7 +691,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
